--- a/xlsx/能源_intext.xlsx
+++ b/xlsx/能源_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E5%8C%96</t>
   </si>
   <si>
-    <t>工業化</t>
+    <t>工业化</t>
   </si>
   <si>
     <t>政策_政策_公共政策_能源</t>
@@ -35,13 +35,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8</t>
   </si>
   <si>
-    <t>運輸</t>
+    <t>运输</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9E%83%E5%9C%BE%E6%94%B6%E9%9B%86</t>
@@ -59,13 +59,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>工業革命</t>
+    <t>工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9A%96%E5%8C%96</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>經濟活動</t>
+    <t>经济活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99</t>
@@ -101,49 +101,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
-    <t>電力</t>
+    <t>电力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1</t>
   </si>
   <si>
-    <t>熱</t>
+    <t>热</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%BB%E5%B0%84</t>
   </si>
   <si>
-    <t>輻射</t>
+    <t>辐射</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E8%83%BD</t>
   </si>
   <si>
-    <t>化學能</t>
+    <t>化学能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%83%BD</t>
   </si>
   <si>
-    <t>電能</t>
+    <t>电能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>電池</t>
+    <t>电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD</t>
   </si>
   <si>
-    <t>太陽</t>
+    <t>太阳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E5%86%8D%E7%94%9F%E8%83%BD%E6%BA%90</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83</t>
   </si>
   <si>
-    <t>環境</t>
+    <t>环境</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>發電廠</t>
+    <t>发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%82%AD</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -221,19 +221,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>能源危機</t>
+    <t>能源危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>石油危機</t>
+    <t>石油危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E5%B3%B0%E5%80%BC</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -269,25 +269,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BF%E4%BB%A3%E8%83%BD%E6%BA%90</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E7%94%B5</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%A3%82%E8%AE%8A</t>
   </si>
   <si>
-    <t>核裂變</t>
+    <t>核裂变</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%B0%84%E6%80%A7%E5%BA%9F%E6%96%99</t>
@@ -353,19 +353,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B3%AA%E8%83%BD</t>
   </si>
   <si>
-    <t>生物質能</t>
+    <t>生物质能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E8%83%BD</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>綠色能源</t>
+    <t>绿色能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E6%AF%8F%E5%B9%B4%E4%BA%BA%E5%9D%87%E8%83%BD%E9%87%8F%E6%B6%88%E8%80%97%E5%88%97%E8%A1%A8</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%A0%B8%E8%83%BD%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>各國核能發展</t>
+    <t>各国核能发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>維基文庫</t>
+    <t>维基文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E6%8A%80%E6%9C%AF</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%94%A2%E9%A4%8A%E6%AE%96</t>
   </si>
   <si>
-    <t>水產養殖</t>
+    <t>水产养殖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E4%BA%A7%E5%AD%A6</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>食品化學</t>
+    <t>食品化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9F%E5%93%81%E5%B7%A5%E7%A8%8B</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%A5%E5%BA%B7%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>健康科學</t>
+    <t>健康科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%8C%96%E6%AA%A2%E9%A9%97</t>
   </si>
   <si>
-    <t>生化檢驗</t>
+    <t>生化检验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%AF%E7%90%86%E5%AD%A6</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
+    <t>建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%88%A9%E5%B7%A5%E7%A8%8B</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>結構工程</t>
+    <t>结构工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E6%8A%80%E6%9C%AF</t>
@@ -695,31 +695,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E8%97%A5</t>
   </si>
   <si>
-    <t>彈藥</t>
+    <t>弹药</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%B8%E5%BD%88</t>
   </si>
   <si>
-    <t>炸彈</t>
+    <t>炸弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事技術</t>
+    <t>军事技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>電子作戰</t>
+    <t>电子作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%8F%AF%E5%81%B5%E6%B8%AC%E6%80%A7%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>低可偵測性技術</t>
+    <t>低可侦测性技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -785,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>軟件工程</t>
+    <t>软件工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90%E6%8A%80%E6%9C%AF</t>
@@ -881,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%A9%9F%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>電機工程學</t>
+    <t>电机工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E5%B7%A5%E7%A8%8B</t>
@@ -893,7 +893,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%A6</t>
@@ -959,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>運輸工程</t>
+    <t>运输工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%8A%A8%E6%9C%BA%E6%A2%B0%E5%AD%A6</t>
@@ -977,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0</t>
   </si>
   <si>
-    <t>製造</t>
+    <t>制造</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E6%A2%B0</t>
@@ -1055,19 +1055,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>環境科技</t>
+    <t>环境科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%AF%E5%A2%83%E5%B7%A5%E7%A8%8B</t>
@@ -1079,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>生態工程</t>
+    <t>生态工程</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Clean_technology</t>
@@ -1103,7 +1103,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E7%94%A8%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>應用科學</t>
+    <t>应用科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4</t>
@@ -1145,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>微系統</t>
+    <t>微系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E6%8A%80%E6%9C%AF</t>
@@ -1181,13 +1181,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%A4%8E%E8%A8%AD%E6%96%BD</t>
   </si>
   <si>
-    <t>基礎設施</t>
+    <t>基础设施</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E6%98%8E%E5%B9%B4%E8%A1%A8</t>
@@ -1199,13 +1199,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8</t>
   </si>
   <si>
-    <t>機器</t>
+    <t>机器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%83%BD</t>
@@ -1247,13 +1247,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%97%E5%8C%96%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>數字化革命</t>
+    <t>数字化革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E5%B7%A5%E6%A5%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>第三次工業革命</t>
+    <t>第三次工业革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%97%B6%E4%BB%A3</t>
@@ -1307,7 +1307,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E5%A3%9E%E6%80%A7%E5%89%B5%E6%96%B0</t>
   </si>
   <si>
-    <t>破壞性創新</t>
+    <t>破坏性创新</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%A7%91%E6%8A%80</t>
@@ -1337,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%AE%98%E5%83%9A</t>
   </si>
   <si>
-    <t>技術官僚</t>
+    <t>技术官僚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%A5%87%E5%BC%82%E7%82%B9</t>
@@ -1379,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%88%88%E6%8A%80%E8%A1%93%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>新興技術列表</t>
+    <t>新兴技术列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%E8%BE%BE%E8%82%96%E5%A4%AB%E6%8C%87%E6%95%B0</t>
@@ -1403,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1415,7 +1415,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>

--- a/xlsx/能源_intext.xlsx
+++ b/xlsx/能源_intext.xlsx
@@ -29,7 +29,7 @@
     <t>工業化</t>
   </si>
   <si>
-    <t>政策_政策_公共政策_能源</t>
+    <t>体育运动_体育运动_技术_能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
